--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="Assets" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -119,18 +118,6 @@
     <t>FTP_Host</t>
   </si>
   <si>
-    <t>EmailSubjectJENotifySubmitter</t>
-  </si>
-  <si>
-    <t>EmailSubjectJEOutOfBalance</t>
-  </si>
-  <si>
-    <t>EmailSubjectJERequestApproval</t>
-  </si>
-  <si>
-    <t>EmailSubjectJSecurityRejection</t>
-  </si>
-  <si>
     <t>SupportingJEFilesPath</t>
   </si>
   <si>
@@ -141,6 +128,15 @@
   </si>
   <si>
     <t>\Documents\JE Files\JE Excel</t>
+  </si>
+  <si>
+    <t>SQLConnectionString</t>
+  </si>
+  <si>
+    <t>AgilePointCredentials</t>
+  </si>
+  <si>
+    <t>AgilePointServerURL</t>
   </si>
 </sst>
 </file>
@@ -527,7 +523,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -602,21 +598,28 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2726,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2750,7 +2753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2760,34 +2763,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Own.Dina\Documents\UiPath\Journal-Entry-Submiter\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Own.Dina\Documents\UiPath\Journal Entry Submiter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>AgilePointServerURL</t>
+  </si>
+  <si>
+    <t>FTPFolderPath</t>
+  </si>
+  <si>
+    <t>/Journal Entry</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2732,7 +2745,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2744,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>/Journal Entry</t>
+  </si>
+  <si>
+    <t>AgilePointCompleteWorkflowURL</t>
+  </si>
+  <si>
+    <t>AgilePointSetAttrURL</t>
+  </si>
+  <si>
+    <t>JE_SharedFolderPath</t>
   </si>
 </sst>
 </file>
@@ -528,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2742,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2790,7 +2799,32 @@
         <v>37</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>JEExcelFilePath</t>
   </si>
   <si>
-    <t>\Documents\JE Files</t>
-  </si>
-  <si>
     <t>\Documents\JE Files\JE Excel</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>JE_SharedFolderPath</t>
+  </si>
+  <si>
+    <t>\Documents\JE Files\Supporting Docs</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -616,7 +616,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -624,23 +624,23 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2753,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2785,42 +2785,42 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -139,9 +139,6 @@
     <t>FTPFolderPath</t>
   </si>
   <si>
-    <t>/Journal Entry</t>
-  </si>
-  <si>
     <t>AgilePointCompleteWorkflowURL</t>
   </si>
   <si>
@@ -152,6 +149,12 @@
   </si>
   <si>
     <t>\Documents\JE Files\Supporting Docs</t>
+  </si>
+  <si>
+    <t>SAP_SID</t>
+  </si>
+  <si>
+    <t>JE_AdminEmail</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -616,7 +619,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -635,14 +638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2751,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2801,26 +2797,50 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,13 @@
   </si>
   <si>
     <t>JE_AdminEmail</t>
+  </si>
+  <si>
+    <t>SAP_ServiceID_JournalEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL_Credential
+</t>
   </si>
 </sst>
 </file>
@@ -541,15 +548,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -605,12 +612,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.5">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -638,7 +645,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1641,12 +1655,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1683,7 +1697,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2753,14 +2767,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
